--- a/Data/Transitions/19581974Translation.xlsx
+++ b/Data/Transitions/19581974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="672">
   <si>
     <t>id</t>
   </si>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{320.0: 1.0, 242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1712,6 +1712,9 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{320.0: 0.4343183698022408, 242.0: 0.5656816301977592}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910336, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158477}</t>
@@ -4488,7 +4491,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4521,7 +4524,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4532,7 +4535,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4543,7 +4546,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4565,7 +4568,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4609,7 +4612,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4675,7 +4678,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4719,7 +4722,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4730,7 +4733,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4752,7 +4755,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4829,7 +4832,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4873,7 +4876,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4895,7 +4898,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4939,7 +4942,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4950,7 +4953,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4961,7 +4964,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4972,7 +4975,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5115,7 +5118,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5126,7 +5129,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5159,7 +5162,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5170,7 +5173,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5181,7 +5184,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5258,7 +5261,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5269,7 +5272,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5302,7 +5305,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5324,7 +5327,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5335,7 +5338,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5346,7 +5349,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5379,7 +5382,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5412,7 +5415,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5423,7 +5426,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5456,7 +5459,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5478,7 +5481,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5489,7 +5492,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5511,7 +5514,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5533,7 +5536,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5555,7 +5558,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5610,7 +5613,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5643,7 +5646,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5731,7 +5734,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5742,7 +5745,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5775,7 +5778,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5797,7 +5800,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5863,7 +5866,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5885,7 +5888,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5896,7 +5899,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5918,7 +5921,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5973,7 +5976,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5984,7 +5987,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6050,7 +6053,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6061,7 +6064,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6072,7 +6075,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6083,7 +6086,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6094,7 +6097,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6127,7 +6130,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6149,7 +6152,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6171,7 +6174,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6182,7 +6185,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6193,7 +6196,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6215,7 +6218,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6226,7 +6229,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6237,7 +6240,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6270,7 +6273,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6303,7 +6306,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6347,7 +6350,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6358,7 +6361,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6391,7 +6394,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6413,7 +6416,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6446,7 +6449,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6490,7 +6493,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6721,7 +6724,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6765,7 +6768,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6776,7 +6779,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6809,7 +6812,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6820,7 +6823,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6831,7 +6834,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6842,7 +6845,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6853,7 +6856,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6875,7 +6878,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6919,7 +6922,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6941,7 +6944,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6963,7 +6966,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6985,7 +6988,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7040,7 +7043,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7095,7 +7098,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7106,7 +7109,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7117,7 +7120,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7172,7 +7175,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7183,7 +7186,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7194,7 +7197,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7205,7 +7208,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7216,7 +7219,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7227,7 +7230,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7249,7 +7252,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7348,7 +7351,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7381,7 +7384,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7414,7 +7417,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7447,7 +7450,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7480,7 +7483,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7502,7 +7505,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7524,7 +7527,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7546,7 +7549,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7557,7 +7560,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7579,7 +7582,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7590,7 +7593,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7689,7 +7692,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
